--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_106_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_106_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.7090844387291755, 4.265251286495342]</t>
+          <t>[3.7028873915006786, 4.271448333723839]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.17780740297160547, 0.5102719672123768]</t>
+          <t>[0.17782668613174746, 0.5102526840522348]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0001375497497615452</v>
+        <v>0.0001373397700505929</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001375497497615452</v>
+        <v>0.0001373397700505929</v>
       </c>
       <c r="W2" t="n">
         <v>5.486286286286493</v>
